--- a/boardgames/seafall/captains_log/campaign_0/captain_kyle/province_log.xlsx
+++ b/boardgames/seafall/captains_log/campaign_0/captain_kyle/province_log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\captain_kyle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Documents/GitHub/boardgame-bookie/boardgames/seafall/captains_log/campaign_0/captain_kyle/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B27CFBD6-1937-8C4E-8178-84DAA7C78622}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="15660" windowHeight="13500"/>
+    <workbookView xWindow="-32420" yWindow="6660" windowWidth="15660" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="province_log" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>game_number</t>
   </si>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,16 +884,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -944,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -964,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -984,7 +985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1273,6 +1274,35 @@
         <v>12</v>
       </c>
       <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
         <v>16</v>
       </c>
     </row>
